--- a/List.xlsx
+++ b/List.xlsx
@@ -630,11 +630,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1144,5 +1146,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>